--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.88163644</v>
+        <v>2895818.165260369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>314.3321959062321</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>273.45623315416</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>269.5431107021496</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.10494780290161</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.7805598920447</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>87.38250358690875</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>139.5115415340515</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189056</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560544</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.4641157700688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>29.249233057517</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E28" t="n">
-        <v>136.1078891637031</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>159.2661870898838</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375794</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>106.997776813539</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>46.35517081455633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>490.5728759019127</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>483.6273751527092</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.654191907093</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2369.854633162706</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2017.085977892592</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2017.085977892592</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>262.3791120239296</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>93.44292909602265</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>966.6317518734413</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>597.6692349330297</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>597.6692349330297</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.673833257799</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1346.208074996719</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>1346.208074996719</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1947.349985492879</v>
+        <v>1465.114432469609</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.1907323102523</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>519.1907323102523</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>519.1907323102523</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>519.1907323102523</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>519.1907323102523</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>739.9833114537824</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>739.9833114537824</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>739.9833114537824</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.1907323102523</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,7 +5047,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5257,25 +5257,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5302,25 +5302,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>264.0500279773688</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5731,58 +5731,58 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5952,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.695539989114</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.011051783227</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703109</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,25 +7402,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207611</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>83.5565973908493</v>
+        <v>360.5859288704236</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>6.92242111251764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23703,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>101.1181252153545</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.36786441186848</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E28" t="n">
-        <v>10.32607348286604</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516648</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>179.3544845744808</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380343</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682706</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26456,10 +26456,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.912602954</v>
+        <v>-205389.9126029537</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115905</v>
+        <v>384577.9666115908</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177966</v>
+        <v>228774.1605177962</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.8130271413</v>
+        <v>-212304.1922814983</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.8783536654</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.4990993084</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.6591610719</v>
+        <v>382325.2799067147</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.878353665</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.878353665</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456062</v>
+        <v>434539.9883912496</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.499099308</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.499099308</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.4990993084</v>
       </c>
     </row>
   </sheetData>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.4016457572485</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>140.327936866635</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27590,16 +27590,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>58.20914776798526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>6.095011385635388</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951019</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.953281771435911</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>164.7551397369193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.928062169788226e-13</v>
       </c>
     </row>
     <row r="21">
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32086,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>303.7670002884146</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>244.6801455411126</v>
+        <v>521.7094770206869</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35491,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>163.785226202393</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2895818.165260369</v>
+        <v>2897578.695563155</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>273.45623315416</v>
+        <v>256.1900748176406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83808333974897</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4237682275164</v>
+        <v>228.4587213424706</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.10494780290161</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>99.60866929162337</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7.150945238862451</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>185.4048731212365</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>29.249233057517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.43007309478924</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>490.5728759019127</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>490.5728759019127</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D2" t="n">
-        <v>490.5728759019127</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E2" t="n">
-        <v>490.5728759019127</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="F2" t="n">
-        <v>483.6273751527092</v>
+        <v>466.1868111764269</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4612,7 +4612,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.3791120239296</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>93.44292909602265</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>93.44292909602265</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>93.44292909602265</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>93.44292909602265</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>93.44292909602265</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>93.44292909602265</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>93.44292909602265</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>598.0972475937699</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>598.0972475937699</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>598.0972475937699</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541693</v>
+        <v>598.0972475937699</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>61.16615882931642</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>302.1295994110957</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>439.3591974267897</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1465.114432469609</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2411.187623003223</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5603,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7402,25 +7402,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7611,10 +7611,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,10 +7739,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>182.4028261892669</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>360.5859288704236</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>101.1181252153545</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>66.09406519747961</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
@@ -26435,22 +26435,22 @@
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682706</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029537</v>
+        <v>-205389.9126029535</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115908</v>
+        <v>384577.9666115907</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177962</v>
+        <v>228774.1605177966</v>
       </c>
       <c r="E6" t="n">
-        <v>-212304.1922814983</v>
+        <v>-211991.5509525766</v>
       </c>
       <c r="F6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="G6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="H6" t="n">
-        <v>558748.4990993084</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="I6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="J6" t="n">
-        <v>382325.2799067147</v>
+        <v>382637.9212356364</v>
       </c>
       <c r="K6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282292</v>
       </c>
       <c r="L6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="M6" t="n">
-        <v>434539.9883912496</v>
+        <v>434852.6297201709</v>
       </c>
       <c r="N6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282292</v>
       </c>
       <c r="O6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="P6" t="n">
-        <v>558748.4990993084</v>
+        <v>559061.1404282294</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,11 +26974,11 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>140.327936866635</v>
+        <v>157.5940952031544</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3604017932786</v>
+        <v>185.3254486783244</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>6.095011385635388</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>152.5289740322046</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>307.8899388363531</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-4.928062169788226e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>210.3948924365565</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>163.1438255932938</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33754,7 +33754,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>250.6935531219508</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7094770206869</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26085851453816</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>20.54758114884936</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
